--- a/PDRMYE/REPORTES MENSUALES/IRIS CECILIA LECHUGA ARTEAGA/Estimaciones Plataformas.xlsx
+++ b/PDRMYE/REPORTES MENSUALES/IRIS CECILIA LECHUGA ARTEAGA/Estimaciones Plataformas.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\INAP-QA\Documents\GITHUB\All-documents-\PDRMYE\REPORTES MENSUALES\IRIS CECILIA LECHUGA ARTEAGA\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="J:\github\All-documents\PDRMYE\REPORTES MENSUALES\IRIS CECILIA LECHUGA ARTEAGA\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -918,7 +918,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="N30" sqref="N30"/>
+      <selection pane="bottomLeft" activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -973,7 +973,7 @@
       </c>
       <c r="D4" s="2">
         <f>SUM(D6:D21)</f>
-        <v>70</v>
+        <v>85</v>
       </c>
       <c r="F4" t="s">
         <v>4</v>
@@ -1012,7 +1012,7 @@
       </c>
       <c r="C6" s="11"/>
       <c r="D6" s="9">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="E6" t="s">
         <v>8</v>
@@ -1033,7 +1033,7 @@
       </c>
       <c r="C7" s="16"/>
       <c r="D7" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
@@ -1044,7 +1044,7 @@
         <v>117</v>
       </c>
       <c r="D8" s="1">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
@@ -1055,7 +1055,7 @@
         <v>115</v>
       </c>
       <c r="D9" s="1">
-        <v>17</v>
+        <v>24</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
@@ -1066,7 +1066,7 @@
         <v>118</v>
       </c>
       <c r="D10" s="1">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
   </sheetData>

--- a/PDRMYE/REPORTES MENSUALES/IRIS CECILIA LECHUGA ARTEAGA/Estimaciones Plataformas.xlsx
+++ b/PDRMYE/REPORTES MENSUALES/IRIS CECILIA LECHUGA ARTEAGA/Estimaciones Plataformas.xlsx
@@ -27,9 +27,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="123">
   <si>
-    <t xml:space="preserve">sprint 23 </t>
-  </si>
-  <si>
     <t xml:space="preserve">al </t>
   </si>
   <si>
@@ -394,6 +391,9 @@
   </si>
   <si>
     <t xml:space="preserve">Completado </t>
+  </si>
+  <si>
+    <t xml:space="preserve">sprint </t>
   </si>
 </sst>
 </file>
@@ -918,7 +918,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F15" sqref="F15"/>
+      <selection pane="bottomLeft" activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -934,7 +934,7 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C1" s="24" t="s">
-        <v>0</v>
+        <v>122</v>
       </c>
       <c r="D1" s="24"/>
       <c r="E1" s="24"/>
@@ -943,40 +943,40 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C2" s="4">
-        <v>44731</v>
+        <v>44773</v>
       </c>
       <c r="D2" s="24" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E2" s="24"/>
       <c r="F2" s="4">
-        <v>44742</v>
+        <v>44784</v>
       </c>
       <c r="G2" s="3"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C3" s="23" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D3" s="23"/>
       <c r="F3" s="23" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G3" s="23"/>
     </row>
     <row r="4" spans="1:7" ht="23.25" x14ac:dyDescent="0.35">
       <c r="C4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D4" s="2">
         <f>SUM(D6:D21)</f>
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="F4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G4" s="2">
         <f>SUM(G6:G21)</f>
@@ -985,40 +985,40 @@
     </row>
     <row r="5" spans="1:7" s="22" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="22" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B5" s="22" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="22" t="s">
+      <c r="D5" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="D5" s="22" t="s">
-        <v>7</v>
-      </c>
       <c r="F5" s="22" t="s">
+        <v>5</v>
+      </c>
+      <c r="G5" s="22" t="s">
         <v>6</v>
-      </c>
-      <c r="G5" s="22" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B6" s="17" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C6" s="11"/>
       <c r="D6" s="9">
-        <v>30</v>
+        <v>8</v>
       </c>
       <c r="E6" t="s">
+        <v>7</v>
+      </c>
+      <c r="F6" t="s">
         <v>8</v>
-      </c>
-      <c r="F6" t="s">
-        <v>9</v>
       </c>
       <c r="G6" s="1">
         <v>10</v>
@@ -1026,47 +1026,47 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B7" s="18" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C7" s="16"/>
       <c r="D7" s="1">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B8" s="19" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D8" s="1">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B9" s="20" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D9" s="1">
-        <v>24</v>
+        <v>19</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B10" s="21" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D10" s="1">
-        <v>12</v>
+        <v>26</v>
       </c>
     </row>
   </sheetData>
@@ -1173,249 +1173,249 @@
     </row>
     <row r="4" spans="1:71" x14ac:dyDescent="0.25">
       <c r="A4" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="8" t="s">
+      <c r="C4" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="8" t="s">
+      <c r="D4" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="D4" s="8" t="s">
+      <c r="E4" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="E4" s="8" t="s">
+      <c r="F4" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="F4" s="8" t="s">
+      <c r="G4" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="G4" s="8" t="s">
+      <c r="H4" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="H4" s="8" t="s">
+      <c r="I4" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="I4" s="8" t="s">
+      <c r="J4" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="J4" s="8" t="s">
+      <c r="K4" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="K4" s="8" t="s">
+      <c r="L4" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="L4" s="8" t="s">
+      <c r="M4" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="M4" s="8" t="s">
+      <c r="N4" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="N4" s="8" t="s">
+      <c r="O4" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="O4" s="8" t="s">
+      <c r="P4" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="P4" s="8" t="s">
+      <c r="Q4" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="Q4" s="8" t="s">
+      <c r="R4" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="R4" s="8" t="s">
+      <c r="S4" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="S4" s="8" t="s">
+      <c r="T4" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="T4" s="8" t="s">
+      <c r="U4" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="U4" s="8" t="s">
+      <c r="V4" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="V4" s="8" t="s">
+      <c r="W4" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="W4" s="8" t="s">
+      <c r="X4" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="X4" s="8" t="s">
+      <c r="Y4" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="Y4" s="8" t="s">
+      <c r="Z4" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="Z4" s="8" t="s">
+      <c r="AA4" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="AA4" s="8" t="s">
+      <c r="AB4" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="AB4" s="8" t="s">
+      <c r="AC4" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="AC4" s="8" t="s">
+      <c r="AD4" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="AD4" s="8" t="s">
+      <c r="AE4" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="AE4" s="8" t="s">
+      <c r="AF4" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="AF4" s="8" t="s">
+      <c r="AG4" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="AG4" s="8" t="s">
+      <c r="AH4" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="AH4" s="8" t="s">
+      <c r="AI4" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="AI4" s="8" t="s">
+      <c r="AJ4" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="AJ4" s="8" t="s">
+      <c r="AK4" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="AK4" s="8" t="s">
+      <c r="AL4" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="AL4" s="8" t="s">
+      <c r="AM4" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="AM4" s="8" t="s">
+      <c r="AN4" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="AN4" s="8" t="s">
+      <c r="AO4" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="AO4" s="8" t="s">
+      <c r="AP4" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="AP4" s="8" t="s">
+      <c r="AQ4" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="AQ4" s="8" t="s">
+      <c r="AR4" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="AR4" s="8" t="s">
+      <c r="AS4" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="AS4" s="8" t="s">
+      <c r="AT4" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="AT4" s="8" t="s">
+      <c r="AU4" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="AU4" s="8" t="s">
+      <c r="AV4" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="AV4" s="8" t="s">
+      <c r="AW4" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="AW4" s="8" t="s">
+      <c r="AX4" s="8" t="s">
         <v>59</v>
       </c>
-      <c r="AX4" s="8" t="s">
+      <c r="AY4" s="8" t="s">
         <v>60</v>
       </c>
-      <c r="AY4" s="8" t="s">
+      <c r="AZ4" s="8" t="s">
         <v>61</v>
       </c>
-      <c r="AZ4" s="8" t="s">
+      <c r="BA4" s="8" t="s">
         <v>62</v>
       </c>
-      <c r="BA4" s="8" t="s">
+      <c r="BB4" s="8" t="s">
         <v>63</v>
       </c>
-      <c r="BB4" s="8" t="s">
+      <c r="BC4" s="8" t="s">
         <v>64</v>
       </c>
-      <c r="BC4" s="8" t="s">
+      <c r="BD4" s="8" t="s">
         <v>65</v>
       </c>
-      <c r="BD4" s="8" t="s">
+      <c r="BE4" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="BE4" s="8" t="s">
+      <c r="BF4" s="8" t="s">
         <v>67</v>
       </c>
-      <c r="BF4" s="8" t="s">
+      <c r="BG4" s="8" t="s">
         <v>68</v>
       </c>
-      <c r="BG4" s="8" t="s">
+      <c r="BH4" s="8" t="s">
         <v>69</v>
       </c>
-      <c r="BH4" s="8" t="s">
+      <c r="BI4" s="8" t="s">
         <v>70</v>
       </c>
-      <c r="BI4" s="8" t="s">
+      <c r="BJ4" s="8" t="s">
         <v>71</v>
       </c>
-      <c r="BJ4" s="8" t="s">
+      <c r="BK4" s="8" t="s">
         <v>72</v>
       </c>
-      <c r="BK4" s="8" t="s">
+      <c r="BL4" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="BM4" s="8" t="s">
         <v>73</v>
       </c>
-      <c r="BL4" s="8" t="s">
-        <v>72</v>
-      </c>
-      <c r="BM4" s="8" t="s">
+      <c r="BN4" s="8" t="s">
         <v>74</v>
       </c>
-      <c r="BN4" s="8" t="s">
+      <c r="BO4" s="8" t="s">
         <v>75</v>
       </c>
-      <c r="BO4" s="8" t="s">
+      <c r="BP4" s="8" t="s">
         <v>76</v>
       </c>
-      <c r="BP4" s="8" t="s">
+      <c r="BQ4" s="8" t="s">
         <v>77</v>
       </c>
-      <c r="BQ4" s="8" t="s">
+      <c r="BR4" s="8" t="s">
         <v>78</v>
       </c>
-      <c r="BR4" s="8" t="s">
+      <c r="BS4" s="8" t="s">
         <v>79</v>
-      </c>
-      <c r="BS4" s="8" t="s">
-        <v>80</v>
       </c>
     </row>
     <row r="5" spans="1:71" x14ac:dyDescent="0.25">
       <c r="A5" s="9" t="s">
+        <v>80</v>
+      </c>
+      <c r="B5" s="10" t="s">
         <v>81</v>
       </c>
-      <c r="B5" s="10" t="s">
+      <c r="C5" s="11" t="s">
         <v>82</v>
       </c>
-      <c r="C5" s="11" t="s">
+      <c r="D5" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="E5" s="12" t="s">
         <v>83</v>
       </c>
-      <c r="D5" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="E5" s="12" t="s">
+      <c r="F5" s="9" t="s">
         <v>84</v>
       </c>
-      <c r="F5" s="9" t="s">
+      <c r="G5" s="13" t="s">
         <v>85</v>
       </c>
-      <c r="G5" s="13" t="s">
+      <c r="H5" s="9" t="s">
         <v>86</v>
       </c>
-      <c r="H5" s="9" t="s">
-        <v>87</v>
-      </c>
       <c r="I5" s="9" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="J5" s="9" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="K5" s="14">
         <v>45096.456944444442</v>
@@ -1457,10 +1457,10 @@
         <v>45096.456944444442</v>
       </c>
       <c r="AL5" s="9" t="s">
+        <v>87</v>
+      </c>
+      <c r="AM5" s="9" t="s">
         <v>88</v>
-      </c>
-      <c r="AM5" s="9" t="s">
-        <v>89</v>
       </c>
       <c r="AN5" s="9"/>
       <c r="AO5" s="9"/>
@@ -1481,11 +1481,11 @@
       <c r="BD5" s="9"/>
       <c r="BE5" s="9"/>
       <c r="BF5" s="9" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="BG5" s="9"/>
       <c r="BH5" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="BI5" s="9"/>
       <c r="BJ5" s="9">
@@ -1505,34 +1505,34 @@
     </row>
     <row r="6" spans="1:71" x14ac:dyDescent="0.25">
       <c r="A6" s="9" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B6" s="10" t="s">
+        <v>91</v>
+      </c>
+      <c r="C6" s="11" t="s">
         <v>92</v>
       </c>
-      <c r="C6" s="11" t="s">
-        <v>93</v>
-      </c>
       <c r="D6" s="12" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E6" s="12" t="s">
+        <v>83</v>
+      </c>
+      <c r="F6" s="9" t="s">
         <v>84</v>
       </c>
-      <c r="F6" s="9" t="s">
+      <c r="G6" s="13" t="s">
         <v>85</v>
       </c>
-      <c r="G6" s="13" t="s">
+      <c r="H6" s="9" t="s">
         <v>86</v>
       </c>
-      <c r="H6" s="9" t="s">
-        <v>87</v>
-      </c>
       <c r="I6" s="9" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="J6" s="9" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="K6" s="14">
         <v>45096.456250000003</v>
@@ -1574,10 +1574,10 @@
         <v>45096.456250000003</v>
       </c>
       <c r="AL6" s="9" t="s">
+        <v>87</v>
+      </c>
+      <c r="AM6" s="9" t="s">
         <v>88</v>
-      </c>
-      <c r="AM6" s="9" t="s">
-        <v>89</v>
       </c>
       <c r="AN6" s="9"/>
       <c r="AO6" s="9"/>
@@ -1598,11 +1598,11 @@
       <c r="BD6" s="9"/>
       <c r="BE6" s="9"/>
       <c r="BF6" s="9" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="BG6" s="9"/>
       <c r="BH6" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="BI6" s="9"/>
       <c r="BJ6" s="9">
@@ -1622,34 +1622,34 @@
     </row>
     <row r="7" spans="1:71" x14ac:dyDescent="0.25">
       <c r="A7" s="9" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B7" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="C7" s="11" t="s">
         <v>95</v>
       </c>
-      <c r="C7" s="11" t="s">
-        <v>96</v>
-      </c>
       <c r="D7" s="12" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E7" s="12" t="s">
+        <v>83</v>
+      </c>
+      <c r="F7" s="9" t="s">
         <v>84</v>
       </c>
-      <c r="F7" s="9" t="s">
+      <c r="G7" s="13" t="s">
         <v>85</v>
       </c>
-      <c r="G7" s="13" t="s">
+      <c r="H7" s="9" t="s">
         <v>86</v>
       </c>
-      <c r="H7" s="9" t="s">
-        <v>87</v>
-      </c>
       <c r="I7" s="9" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="J7" s="9" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="K7" s="14">
         <v>45096.455555555556</v>
@@ -1691,10 +1691,10 @@
         <v>45096.455555555556</v>
       </c>
       <c r="AL7" s="9" t="s">
+        <v>87</v>
+      </c>
+      <c r="AM7" s="9" t="s">
         <v>88</v>
-      </c>
-      <c r="AM7" s="9" t="s">
-        <v>89</v>
       </c>
       <c r="AN7" s="9"/>
       <c r="AO7" s="9"/>
@@ -1715,11 +1715,11 @@
       <c r="BD7" s="9"/>
       <c r="BE7" s="9"/>
       <c r="BF7" s="9" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="BG7" s="9"/>
       <c r="BH7" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="BI7" s="9"/>
       <c r="BJ7" s="9">
@@ -1739,34 +1739,34 @@
     </row>
     <row r="8" spans="1:71" x14ac:dyDescent="0.25">
       <c r="A8" s="9" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B8" s="10" t="s">
+        <v>97</v>
+      </c>
+      <c r="C8" s="11" t="s">
         <v>98</v>
       </c>
-      <c r="C8" s="11" t="s">
-        <v>99</v>
-      </c>
       <c r="D8" s="12" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E8" s="12" t="s">
+        <v>83</v>
+      </c>
+      <c r="F8" s="9" t="s">
         <v>84</v>
       </c>
-      <c r="F8" s="9" t="s">
+      <c r="G8" s="13" t="s">
         <v>85</v>
       </c>
-      <c r="G8" s="13" t="s">
+      <c r="H8" s="9" t="s">
         <v>86</v>
       </c>
-      <c r="H8" s="9" t="s">
-        <v>87</v>
-      </c>
       <c r="I8" s="9" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="J8" s="9" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="K8" s="14">
         <v>45096.454861111109</v>
@@ -1808,10 +1808,10 @@
         <v>45096.454861111109</v>
       </c>
       <c r="AL8" s="9" t="s">
+        <v>87</v>
+      </c>
+      <c r="AM8" s="9" t="s">
         <v>88</v>
-      </c>
-      <c r="AM8" s="9" t="s">
-        <v>89</v>
       </c>
       <c r="AN8" s="9"/>
       <c r="AO8" s="9"/>
@@ -1832,11 +1832,11 @@
       <c r="BD8" s="9"/>
       <c r="BE8" s="9"/>
       <c r="BF8" s="9" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="BG8" s="9"/>
       <c r="BH8" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="BI8" s="9"/>
       <c r="BJ8" s="9">
@@ -1856,34 +1856,34 @@
     </row>
     <row r="9" spans="1:71" x14ac:dyDescent="0.25">
       <c r="A9" s="9" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B9" s="10" t="s">
+        <v>100</v>
+      </c>
+      <c r="C9" s="11" t="s">
         <v>101</v>
       </c>
-      <c r="C9" s="11" t="s">
-        <v>102</v>
-      </c>
       <c r="D9" s="12" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E9" s="12" t="s">
+        <v>83</v>
+      </c>
+      <c r="F9" s="9" t="s">
         <v>84</v>
       </c>
-      <c r="F9" s="9" t="s">
+      <c r="G9" s="13" t="s">
         <v>85</v>
       </c>
-      <c r="G9" s="13" t="s">
+      <c r="H9" s="9" t="s">
         <v>86</v>
       </c>
-      <c r="H9" s="9" t="s">
-        <v>87</v>
-      </c>
       <c r="I9" s="9" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="J9" s="9" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="K9" s="14">
         <v>45096.45416666667</v>
@@ -1925,10 +1925,10 @@
         <v>45096.45416666667</v>
       </c>
       <c r="AL9" s="9" t="s">
+        <v>87</v>
+      </c>
+      <c r="AM9" s="9" t="s">
         <v>88</v>
-      </c>
-      <c r="AM9" s="9" t="s">
-        <v>89</v>
       </c>
       <c r="AN9" s="9"/>
       <c r="AO9" s="9"/>
@@ -1949,11 +1949,11 @@
       <c r="BD9" s="9"/>
       <c r="BE9" s="9"/>
       <c r="BF9" s="9" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="BG9" s="9"/>
       <c r="BH9" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="BI9" s="9"/>
       <c r="BJ9" s="9">
@@ -1973,34 +1973,34 @@
     </row>
     <row r="10" spans="1:71" x14ac:dyDescent="0.25">
       <c r="A10" s="9" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B10" s="10" t="s">
+        <v>103</v>
+      </c>
+      <c r="C10" s="11" t="s">
         <v>104</v>
       </c>
-      <c r="C10" s="11" t="s">
+      <c r="D10" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="E10" s="12" t="s">
+        <v>83</v>
+      </c>
+      <c r="F10" s="9" t="s">
+        <v>84</v>
+      </c>
+      <c r="G10" s="13" t="s">
+        <v>85</v>
+      </c>
+      <c r="H10" s="9" t="s">
+        <v>86</v>
+      </c>
+      <c r="I10" s="9" t="s">
         <v>105</v>
       </c>
-      <c r="D10" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="E10" s="12" t="s">
-        <v>84</v>
-      </c>
-      <c r="F10" s="9" t="s">
-        <v>85</v>
-      </c>
-      <c r="G10" s="13" t="s">
-        <v>86</v>
-      </c>
-      <c r="H10" s="9" t="s">
-        <v>87</v>
-      </c>
-      <c r="I10" s="9" t="s">
-        <v>106</v>
-      </c>
       <c r="J10" s="9" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="K10" s="14">
         <v>45092.677777777775</v>
@@ -2042,7 +2042,7 @@
         <v>45092.677777777775</v>
       </c>
       <c r="AL10" s="9" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AM10" s="9"/>
       <c r="AN10" s="9"/>
@@ -2064,7 +2064,7 @@
       <c r="BD10" s="9"/>
       <c r="BE10" s="9"/>
       <c r="BF10" s="9" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="BG10" s="9"/>
       <c r="BH10" s="9"/>
@@ -2084,34 +2084,34 @@
     </row>
     <row r="11" spans="1:71" x14ac:dyDescent="0.25">
       <c r="A11" s="9" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B11" s="10" t="s">
+        <v>107</v>
+      </c>
+      <c r="C11" s="11" t="s">
         <v>108</v>
       </c>
-      <c r="C11" s="11" t="s">
-        <v>109</v>
-      </c>
       <c r="D11" s="12" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E11" s="12" t="s">
+        <v>83</v>
+      </c>
+      <c r="F11" s="9" t="s">
         <v>84</v>
       </c>
-      <c r="F11" s="9" t="s">
+      <c r="G11" s="13" t="s">
         <v>85</v>
       </c>
-      <c r="G11" s="13" t="s">
+      <c r="H11" s="9" t="s">
         <v>86</v>
       </c>
-      <c r="H11" s="9" t="s">
-        <v>87</v>
-      </c>
       <c r="I11" s="9" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="J11" s="9" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="K11" s="14">
         <v>45092.675694444442</v>
@@ -2153,10 +2153,10 @@
         <v>45092.675694444442</v>
       </c>
       <c r="AL11" s="9" t="s">
+        <v>87</v>
+      </c>
+      <c r="AM11" s="9" t="s">
         <v>88</v>
-      </c>
-      <c r="AM11" s="9" t="s">
-        <v>89</v>
       </c>
       <c r="AN11" s="9"/>
       <c r="AO11" s="9"/>
@@ -2177,11 +2177,11 @@
       <c r="BD11" s="9"/>
       <c r="BE11" s="9"/>
       <c r="BF11" s="9" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="BG11" s="9"/>
       <c r="BH11" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="BI11" s="9"/>
       <c r="BJ11" s="9">
@@ -2201,34 +2201,34 @@
     </row>
     <row r="12" spans="1:71" x14ac:dyDescent="0.25">
       <c r="A12" s="9" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B12" s="10" t="s">
+        <v>110</v>
+      </c>
+      <c r="C12" s="11" t="s">
         <v>111</v>
       </c>
-      <c r="C12" s="11" t="s">
-        <v>112</v>
-      </c>
       <c r="D12" s="12" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E12" s="12" t="s">
+        <v>83</v>
+      </c>
+      <c r="F12" s="9" t="s">
         <v>84</v>
       </c>
-      <c r="F12" s="9" t="s">
+      <c r="G12" s="13" t="s">
         <v>85</v>
       </c>
-      <c r="G12" s="13" t="s">
+      <c r="H12" s="9" t="s">
         <v>86</v>
       </c>
-      <c r="H12" s="9" t="s">
-        <v>87</v>
-      </c>
       <c r="I12" s="9" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="J12" s="9" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="K12" s="14">
         <v>45090.515277777777</v>
@@ -2270,10 +2270,10 @@
         <v>45090.515277777777</v>
       </c>
       <c r="AL12" s="9" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AM12" s="9" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="AN12" s="9"/>
       <c r="AO12" s="9"/>
@@ -2294,11 +2294,11 @@
       <c r="BD12" s="9"/>
       <c r="BE12" s="9"/>
       <c r="BF12" s="9" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="BG12" s="9"/>
       <c r="BH12" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="BI12" s="9"/>
       <c r="BJ12" s="9">

--- a/PDRMYE/REPORTES MENSUALES/IRIS CECILIA LECHUGA ARTEAGA/Estimaciones Plataformas.xlsx
+++ b/PDRMYE/REPORTES MENSUALES/IRIS CECILIA LECHUGA ARTEAGA/Estimaciones Plataformas.xlsx
@@ -25,14 +25,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="124">
   <si>
     <t xml:space="preserve">al </t>
   </si>
   <si>
-    <t>Desarrollo</t>
-  </si>
-  <si>
     <t>Administrativo</t>
   </si>
   <si>
@@ -394,6 +391,12 @@
   </si>
   <si>
     <t xml:space="preserve">sprint </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Auditorias </t>
+  </si>
+  <si>
+    <t>QA</t>
   </si>
 </sst>
 </file>
@@ -462,7 +465,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -496,6 +499,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF7030A0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -582,7 +591,7 @@
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="1" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
@@ -632,6 +641,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hipervínculo" xfId="2" builtinId="8"/>
@@ -914,7 +924,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G10"/>
+  <dimension ref="A1:G11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
@@ -934,7 +944,7 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C1" s="24" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D1" s="24"/>
       <c r="E1" s="24"/>
@@ -943,40 +953,40 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C2" s="4">
-        <v>44773</v>
+        <v>44787</v>
       </c>
       <c r="D2" s="24" t="s">
         <v>0</v>
       </c>
       <c r="E2" s="24"/>
       <c r="F2" s="4">
-        <v>44784</v>
+        <v>44798</v>
       </c>
       <c r="G2" s="3"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C3" s="23" t="s">
-        <v>1</v>
+        <v>123</v>
       </c>
       <c r="D3" s="23"/>
       <c r="F3" s="23" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G3" s="23"/>
     </row>
     <row r="4" spans="1:7" ht="23.25" x14ac:dyDescent="0.35">
       <c r="C4" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D4" s="2">
         <f>SUM(D6:D21)</f>
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="F4" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G4" s="2">
         <f>SUM(G6:G21)</f>
@@ -985,40 +995,40 @@
     </row>
     <row r="5" spans="1:7" s="22" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="22" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B5" s="22" t="s">
+        <v>3</v>
+      </c>
+      <c r="C5" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="22" t="s">
+      <c r="D5" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="D5" s="22" t="s">
-        <v>6</v>
-      </c>
       <c r="F5" s="22" t="s">
+        <v>4</v>
+      </c>
+      <c r="G5" s="22" t="s">
         <v>5</v>
-      </c>
-      <c r="G5" s="22" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B6" s="17" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C6" s="11"/>
       <c r="D6" s="9">
-        <v>8</v>
+        <v>25</v>
       </c>
       <c r="E6" t="s">
+        <v>6</v>
+      </c>
+      <c r="F6" t="s">
         <v>7</v>
-      </c>
-      <c r="F6" t="s">
-        <v>8</v>
       </c>
       <c r="G6" s="1">
         <v>10</v>
@@ -1026,10 +1036,10 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B7" s="18" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C7" s="16"/>
       <c r="D7" s="1">
@@ -1038,10 +1048,10 @@
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B8" s="19" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D8" s="1">
         <v>16</v>
@@ -1049,24 +1059,32 @@
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B9" s="20" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D9" s="1">
-        <v>19</v>
+        <v>6</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B10" s="21" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D10" s="1">
-        <v>26</v>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B11" s="25" t="s">
+        <v>122</v>
+      </c>
+      <c r="D11" s="1">
+        <v>12</v>
       </c>
     </row>
   </sheetData>
@@ -1173,249 +1191,249 @@
     </row>
     <row r="4" spans="1:71" x14ac:dyDescent="0.25">
       <c r="A4" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="8" t="s">
+      <c r="C4" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="C4" s="8" t="s">
+      <c r="D4" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="D4" s="8" t="s">
+      <c r="E4" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="E4" s="8" t="s">
+      <c r="F4" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="F4" s="8" t="s">
+      <c r="G4" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="G4" s="8" t="s">
+      <c r="H4" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="H4" s="8" t="s">
+      <c r="I4" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="I4" s="8" t="s">
+      <c r="J4" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="J4" s="8" t="s">
+      <c r="K4" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="K4" s="8" t="s">
+      <c r="L4" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="L4" s="8" t="s">
+      <c r="M4" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="M4" s="8" t="s">
+      <c r="N4" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="N4" s="8" t="s">
+      <c r="O4" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="O4" s="8" t="s">
+      <c r="P4" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="P4" s="8" t="s">
+      <c r="Q4" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="Q4" s="8" t="s">
+      <c r="R4" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="R4" s="8" t="s">
+      <c r="S4" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="S4" s="8" t="s">
+      <c r="T4" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="T4" s="8" t="s">
+      <c r="U4" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="U4" s="8" t="s">
+      <c r="V4" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="V4" s="8" t="s">
+      <c r="W4" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="W4" s="8" t="s">
+      <c r="X4" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="X4" s="8" t="s">
+      <c r="Y4" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="Y4" s="8" t="s">
+      <c r="Z4" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="Z4" s="8" t="s">
+      <c r="AA4" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="AA4" s="8" t="s">
+      <c r="AB4" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="AB4" s="8" t="s">
+      <c r="AC4" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="AC4" s="8" t="s">
+      <c r="AD4" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="AD4" s="8" t="s">
+      <c r="AE4" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="AE4" s="8" t="s">
+      <c r="AF4" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="AF4" s="8" t="s">
+      <c r="AG4" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="AG4" s="8" t="s">
+      <c r="AH4" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="AH4" s="8" t="s">
+      <c r="AI4" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="AI4" s="8" t="s">
+      <c r="AJ4" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="AJ4" s="8" t="s">
+      <c r="AK4" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="AK4" s="8" t="s">
+      <c r="AL4" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="AL4" s="8" t="s">
+      <c r="AM4" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="AM4" s="8" t="s">
+      <c r="AN4" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="AN4" s="8" t="s">
+      <c r="AO4" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="AO4" s="8" t="s">
+      <c r="AP4" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="AP4" s="8" t="s">
+      <c r="AQ4" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="AQ4" s="8" t="s">
+      <c r="AR4" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="AR4" s="8" t="s">
+      <c r="AS4" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="AS4" s="8" t="s">
+      <c r="AT4" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="AT4" s="8" t="s">
+      <c r="AU4" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="AU4" s="8" t="s">
+      <c r="AV4" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="AV4" s="8" t="s">
+      <c r="AW4" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="AW4" s="8" t="s">
+      <c r="AX4" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="AX4" s="8" t="s">
+      <c r="AY4" s="8" t="s">
         <v>59</v>
       </c>
-      <c r="AY4" s="8" t="s">
+      <c r="AZ4" s="8" t="s">
         <v>60</v>
       </c>
-      <c r="AZ4" s="8" t="s">
+      <c r="BA4" s="8" t="s">
         <v>61</v>
       </c>
-      <c r="BA4" s="8" t="s">
+      <c r="BB4" s="8" t="s">
         <v>62</v>
       </c>
-      <c r="BB4" s="8" t="s">
+      <c r="BC4" s="8" t="s">
         <v>63</v>
       </c>
-      <c r="BC4" s="8" t="s">
+      <c r="BD4" s="8" t="s">
         <v>64</v>
       </c>
-      <c r="BD4" s="8" t="s">
+      <c r="BE4" s="8" t="s">
         <v>65</v>
       </c>
-      <c r="BE4" s="8" t="s">
+      <c r="BF4" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="BF4" s="8" t="s">
+      <c r="BG4" s="8" t="s">
         <v>67</v>
       </c>
-      <c r="BG4" s="8" t="s">
+      <c r="BH4" s="8" t="s">
         <v>68</v>
       </c>
-      <c r="BH4" s="8" t="s">
+      <c r="BI4" s="8" t="s">
         <v>69</v>
       </c>
-      <c r="BI4" s="8" t="s">
+      <c r="BJ4" s="8" t="s">
         <v>70</v>
       </c>
-      <c r="BJ4" s="8" t="s">
+      <c r="BK4" s="8" t="s">
         <v>71</v>
       </c>
-      <c r="BK4" s="8" t="s">
+      <c r="BL4" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="BM4" s="8" t="s">
         <v>72</v>
       </c>
-      <c r="BL4" s="8" t="s">
-        <v>71</v>
-      </c>
-      <c r="BM4" s="8" t="s">
+      <c r="BN4" s="8" t="s">
         <v>73</v>
       </c>
-      <c r="BN4" s="8" t="s">
+      <c r="BO4" s="8" t="s">
         <v>74</v>
       </c>
-      <c r="BO4" s="8" t="s">
+      <c r="BP4" s="8" t="s">
         <v>75</v>
       </c>
-      <c r="BP4" s="8" t="s">
+      <c r="BQ4" s="8" t="s">
         <v>76</v>
       </c>
-      <c r="BQ4" s="8" t="s">
+      <c r="BR4" s="8" t="s">
         <v>77</v>
       </c>
-      <c r="BR4" s="8" t="s">
+      <c r="BS4" s="8" t="s">
         <v>78</v>
-      </c>
-      <c r="BS4" s="8" t="s">
-        <v>79</v>
       </c>
     </row>
     <row r="5" spans="1:71" x14ac:dyDescent="0.25">
       <c r="A5" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="B5" s="10" t="s">
         <v>80</v>
       </c>
-      <c r="B5" s="10" t="s">
+      <c r="C5" s="11" t="s">
         <v>81</v>
       </c>
-      <c r="C5" s="11" t="s">
+      <c r="D5" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="E5" s="12" t="s">
         <v>82</v>
       </c>
-      <c r="D5" s="12" t="s">
-        <v>5</v>
-      </c>
-      <c r="E5" s="12" t="s">
+      <c r="F5" s="9" t="s">
         <v>83</v>
       </c>
-      <c r="F5" s="9" t="s">
+      <c r="G5" s="13" t="s">
         <v>84</v>
       </c>
-      <c r="G5" s="13" t="s">
+      <c r="H5" s="9" t="s">
         <v>85</v>
       </c>
-      <c r="H5" s="9" t="s">
-        <v>86</v>
-      </c>
       <c r="I5" s="9" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="J5" s="9" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="K5" s="14">
         <v>45096.456944444442</v>
@@ -1457,10 +1475,10 @@
         <v>45096.456944444442</v>
       </c>
       <c r="AL5" s="9" t="s">
+        <v>86</v>
+      </c>
+      <c r="AM5" s="9" t="s">
         <v>87</v>
-      </c>
-      <c r="AM5" s="9" t="s">
-        <v>88</v>
       </c>
       <c r="AN5" s="9"/>
       <c r="AO5" s="9"/>
@@ -1481,11 +1499,11 @@
       <c r="BD5" s="9"/>
       <c r="BE5" s="9"/>
       <c r="BF5" s="9" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="BG5" s="9"/>
       <c r="BH5" s="9" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="BI5" s="9"/>
       <c r="BJ5" s="9">
@@ -1505,34 +1523,34 @@
     </row>
     <row r="6" spans="1:71" x14ac:dyDescent="0.25">
       <c r="A6" s="9" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B6" s="10" t="s">
+        <v>90</v>
+      </c>
+      <c r="C6" s="11" t="s">
         <v>91</v>
       </c>
-      <c r="C6" s="11" t="s">
-        <v>92</v>
-      </c>
       <c r="D6" s="12" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E6" s="12" t="s">
+        <v>82</v>
+      </c>
+      <c r="F6" s="9" t="s">
         <v>83</v>
       </c>
-      <c r="F6" s="9" t="s">
+      <c r="G6" s="13" t="s">
         <v>84</v>
       </c>
-      <c r="G6" s="13" t="s">
+      <c r="H6" s="9" t="s">
         <v>85</v>
       </c>
-      <c r="H6" s="9" t="s">
-        <v>86</v>
-      </c>
       <c r="I6" s="9" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="J6" s="9" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="K6" s="14">
         <v>45096.456250000003</v>
@@ -1574,10 +1592,10 @@
         <v>45096.456250000003</v>
       </c>
       <c r="AL6" s="9" t="s">
+        <v>86</v>
+      </c>
+      <c r="AM6" s="9" t="s">
         <v>87</v>
-      </c>
-      <c r="AM6" s="9" t="s">
-        <v>88</v>
       </c>
       <c r="AN6" s="9"/>
       <c r="AO6" s="9"/>
@@ -1598,11 +1616,11 @@
       <c r="BD6" s="9"/>
       <c r="BE6" s="9"/>
       <c r="BF6" s="9" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="BG6" s="9"/>
       <c r="BH6" s="9" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="BI6" s="9"/>
       <c r="BJ6" s="9">
@@ -1622,34 +1640,34 @@
     </row>
     <row r="7" spans="1:71" x14ac:dyDescent="0.25">
       <c r="A7" s="9" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B7" s="10" t="s">
+        <v>93</v>
+      </c>
+      <c r="C7" s="11" t="s">
         <v>94</v>
       </c>
-      <c r="C7" s="11" t="s">
-        <v>95</v>
-      </c>
       <c r="D7" s="12" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E7" s="12" t="s">
+        <v>82</v>
+      </c>
+      <c r="F7" s="9" t="s">
         <v>83</v>
       </c>
-      <c r="F7" s="9" t="s">
+      <c r="G7" s="13" t="s">
         <v>84</v>
       </c>
-      <c r="G7" s="13" t="s">
+      <c r="H7" s="9" t="s">
         <v>85</v>
       </c>
-      <c r="H7" s="9" t="s">
-        <v>86</v>
-      </c>
       <c r="I7" s="9" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="J7" s="9" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="K7" s="14">
         <v>45096.455555555556</v>
@@ -1691,10 +1709,10 @@
         <v>45096.455555555556</v>
       </c>
       <c r="AL7" s="9" t="s">
+        <v>86</v>
+      </c>
+      <c r="AM7" s="9" t="s">
         <v>87</v>
-      </c>
-      <c r="AM7" s="9" t="s">
-        <v>88</v>
       </c>
       <c r="AN7" s="9"/>
       <c r="AO7" s="9"/>
@@ -1715,11 +1733,11 @@
       <c r="BD7" s="9"/>
       <c r="BE7" s="9"/>
       <c r="BF7" s="9" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="BG7" s="9"/>
       <c r="BH7" s="9" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="BI7" s="9"/>
       <c r="BJ7" s="9">
@@ -1739,34 +1757,34 @@
     </row>
     <row r="8" spans="1:71" x14ac:dyDescent="0.25">
       <c r="A8" s="9" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B8" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="C8" s="11" t="s">
         <v>97</v>
       </c>
-      <c r="C8" s="11" t="s">
-        <v>98</v>
-      </c>
       <c r="D8" s="12" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E8" s="12" t="s">
+        <v>82</v>
+      </c>
+      <c r="F8" s="9" t="s">
         <v>83</v>
       </c>
-      <c r="F8" s="9" t="s">
+      <c r="G8" s="13" t="s">
         <v>84</v>
       </c>
-      <c r="G8" s="13" t="s">
+      <c r="H8" s="9" t="s">
         <v>85</v>
       </c>
-      <c r="H8" s="9" t="s">
-        <v>86</v>
-      </c>
       <c r="I8" s="9" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="J8" s="9" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="K8" s="14">
         <v>45096.454861111109</v>
@@ -1808,10 +1826,10 @@
         <v>45096.454861111109</v>
       </c>
       <c r="AL8" s="9" t="s">
+        <v>86</v>
+      </c>
+      <c r="AM8" s="9" t="s">
         <v>87</v>
-      </c>
-      <c r="AM8" s="9" t="s">
-        <v>88</v>
       </c>
       <c r="AN8" s="9"/>
       <c r="AO8" s="9"/>
@@ -1832,11 +1850,11 @@
       <c r="BD8" s="9"/>
       <c r="BE8" s="9"/>
       <c r="BF8" s="9" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="BG8" s="9"/>
       <c r="BH8" s="9" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="BI8" s="9"/>
       <c r="BJ8" s="9">
@@ -1856,34 +1874,34 @@
     </row>
     <row r="9" spans="1:71" x14ac:dyDescent="0.25">
       <c r="A9" s="9" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B9" s="10" t="s">
+        <v>99</v>
+      </c>
+      <c r="C9" s="11" t="s">
         <v>100</v>
       </c>
-      <c r="C9" s="11" t="s">
-        <v>101</v>
-      </c>
       <c r="D9" s="12" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E9" s="12" t="s">
+        <v>82</v>
+      </c>
+      <c r="F9" s="9" t="s">
         <v>83</v>
       </c>
-      <c r="F9" s="9" t="s">
+      <c r="G9" s="13" t="s">
         <v>84</v>
       </c>
-      <c r="G9" s="13" t="s">
+      <c r="H9" s="9" t="s">
         <v>85</v>
       </c>
-      <c r="H9" s="9" t="s">
-        <v>86</v>
-      </c>
       <c r="I9" s="9" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="J9" s="9" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="K9" s="14">
         <v>45096.45416666667</v>
@@ -1925,10 +1943,10 @@
         <v>45096.45416666667</v>
       </c>
       <c r="AL9" s="9" t="s">
+        <v>86</v>
+      </c>
+      <c r="AM9" s="9" t="s">
         <v>87</v>
-      </c>
-      <c r="AM9" s="9" t="s">
-        <v>88</v>
       </c>
       <c r="AN9" s="9"/>
       <c r="AO9" s="9"/>
@@ -1949,11 +1967,11 @@
       <c r="BD9" s="9"/>
       <c r="BE9" s="9"/>
       <c r="BF9" s="9" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="BG9" s="9"/>
       <c r="BH9" s="9" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="BI9" s="9"/>
       <c r="BJ9" s="9">
@@ -1973,34 +1991,34 @@
     </row>
     <row r="10" spans="1:71" x14ac:dyDescent="0.25">
       <c r="A10" s="9" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B10" s="10" t="s">
+        <v>102</v>
+      </c>
+      <c r="C10" s="11" t="s">
         <v>103</v>
       </c>
-      <c r="C10" s="11" t="s">
+      <c r="D10" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="E10" s="12" t="s">
+        <v>82</v>
+      </c>
+      <c r="F10" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="G10" s="13" t="s">
+        <v>84</v>
+      </c>
+      <c r="H10" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="I10" s="9" t="s">
         <v>104</v>
       </c>
-      <c r="D10" s="12" t="s">
-        <v>5</v>
-      </c>
-      <c r="E10" s="12" t="s">
-        <v>83</v>
-      </c>
-      <c r="F10" s="9" t="s">
-        <v>84</v>
-      </c>
-      <c r="G10" s="13" t="s">
-        <v>85</v>
-      </c>
-      <c r="H10" s="9" t="s">
-        <v>86</v>
-      </c>
-      <c r="I10" s="9" t="s">
-        <v>105</v>
-      </c>
       <c r="J10" s="9" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="K10" s="14">
         <v>45092.677777777775</v>
@@ -2042,7 +2060,7 @@
         <v>45092.677777777775</v>
       </c>
       <c r="AL10" s="9" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="AM10" s="9"/>
       <c r="AN10" s="9"/>
@@ -2064,7 +2082,7 @@
       <c r="BD10" s="9"/>
       <c r="BE10" s="9"/>
       <c r="BF10" s="9" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="BG10" s="9"/>
       <c r="BH10" s="9"/>
@@ -2084,34 +2102,34 @@
     </row>
     <row r="11" spans="1:71" x14ac:dyDescent="0.25">
       <c r="A11" s="9" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B11" s="10" t="s">
+        <v>106</v>
+      </c>
+      <c r="C11" s="11" t="s">
         <v>107</v>
       </c>
-      <c r="C11" s="11" t="s">
-        <v>108</v>
-      </c>
       <c r="D11" s="12" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E11" s="12" t="s">
+        <v>82</v>
+      </c>
+      <c r="F11" s="9" t="s">
         <v>83</v>
       </c>
-      <c r="F11" s="9" t="s">
+      <c r="G11" s="13" t="s">
         <v>84</v>
       </c>
-      <c r="G11" s="13" t="s">
+      <c r="H11" s="9" t="s">
         <v>85</v>
       </c>
-      <c r="H11" s="9" t="s">
-        <v>86</v>
-      </c>
       <c r="I11" s="9" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="J11" s="9" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="K11" s="14">
         <v>45092.675694444442</v>
@@ -2153,10 +2171,10 @@
         <v>45092.675694444442</v>
       </c>
       <c r="AL11" s="9" t="s">
+        <v>86</v>
+      </c>
+      <c r="AM11" s="9" t="s">
         <v>87</v>
-      </c>
-      <c r="AM11" s="9" t="s">
-        <v>88</v>
       </c>
       <c r="AN11" s="9"/>
       <c r="AO11" s="9"/>
@@ -2177,11 +2195,11 @@
       <c r="BD11" s="9"/>
       <c r="BE11" s="9"/>
       <c r="BF11" s="9" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="BG11" s="9"/>
       <c r="BH11" s="9" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="BI11" s="9"/>
       <c r="BJ11" s="9">
@@ -2201,34 +2219,34 @@
     </row>
     <row r="12" spans="1:71" x14ac:dyDescent="0.25">
       <c r="A12" s="9" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B12" s="10" t="s">
+        <v>109</v>
+      </c>
+      <c r="C12" s="11" t="s">
         <v>110</v>
       </c>
-      <c r="C12" s="11" t="s">
-        <v>111</v>
-      </c>
       <c r="D12" s="12" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E12" s="12" t="s">
+        <v>82</v>
+      </c>
+      <c r="F12" s="9" t="s">
         <v>83</v>
       </c>
-      <c r="F12" s="9" t="s">
+      <c r="G12" s="13" t="s">
         <v>84</v>
       </c>
-      <c r="G12" s="13" t="s">
+      <c r="H12" s="9" t="s">
         <v>85</v>
       </c>
-      <c r="H12" s="9" t="s">
-        <v>86</v>
-      </c>
       <c r="I12" s="9" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="J12" s="9" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="K12" s="14">
         <v>45090.515277777777</v>
@@ -2270,10 +2288,10 @@
         <v>45090.515277777777</v>
       </c>
       <c r="AL12" s="9" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="AM12" s="9" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="AN12" s="9"/>
       <c r="AO12" s="9"/>
@@ -2294,11 +2312,11 @@
       <c r="BD12" s="9"/>
       <c r="BE12" s="9"/>
       <c r="BF12" s="9" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="BG12" s="9"/>
       <c r="BH12" s="9" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="BI12" s="9"/>
       <c r="BJ12" s="9">

--- a/PDRMYE/REPORTES MENSUALES/IRIS CECILIA LECHUGA ARTEAGA/Estimaciones Plataformas.xlsx
+++ b/PDRMYE/REPORTES MENSUALES/IRIS CECILIA LECHUGA ARTEAGA/Estimaciones Plataformas.xlsx
@@ -591,7 +591,7 @@
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="1" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
@@ -635,13 +635,16 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hipervínculo" xfId="2" builtinId="8"/>
@@ -928,7 +931,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F16" sqref="F16"/>
+      <selection pane="bottomLeft" activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -943,13 +946,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C1" s="24" t="s">
+      <c r="C1" s="25" t="s">
         <v>121</v>
       </c>
-      <c r="D1" s="24"/>
-      <c r="E1" s="24"/>
-      <c r="F1" s="24"/>
-      <c r="G1" s="24"/>
+      <c r="D1" s="25"/>
+      <c r="E1" s="25"/>
+      <c r="F1" s="25"/>
+      <c r="G1" s="25"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
@@ -958,24 +961,24 @@
       <c r="C2" s="4">
         <v>44787</v>
       </c>
-      <c r="D2" s="24" t="s">
+      <c r="D2" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="E2" s="24"/>
+      <c r="E2" s="25"/>
       <c r="F2" s="4">
-        <v>44798</v>
+        <v>44791</v>
       </c>
       <c r="G2" s="3"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C3" s="23" t="s">
+      <c r="C3" s="24" t="s">
         <v>123</v>
       </c>
-      <c r="D3" s="23"/>
-      <c r="F3" s="23" t="s">
+      <c r="D3" s="24"/>
+      <c r="F3" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="G3" s="23"/>
+      <c r="G3" s="24"/>
     </row>
     <row r="4" spans="1:7" ht="23.25" x14ac:dyDescent="0.35">
       <c r="C4" t="s">
@@ -983,7 +986,7 @@
       </c>
       <c r="D4" s="2">
         <f>SUM(D6:D21)</f>
-        <v>80</v>
+        <v>37</v>
       </c>
       <c r="F4" t="s">
         <v>2</v>
@@ -1021,8 +1024,8 @@
         <v>8</v>
       </c>
       <c r="C6" s="11"/>
-      <c r="D6" s="9">
-        <v>25</v>
+      <c r="D6" s="26">
+        <v>3.5</v>
       </c>
       <c r="E6" t="s">
         <v>6</v>
@@ -1043,7 +1046,7 @@
       </c>
       <c r="C7" s="16"/>
       <c r="D7" s="1">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
@@ -1054,7 +1057,7 @@
         <v>115</v>
       </c>
       <c r="D8" s="1">
-        <v>16</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
@@ -1065,7 +1068,7 @@
         <v>113</v>
       </c>
       <c r="D9" s="1">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
@@ -1076,11 +1079,11 @@
         <v>116</v>
       </c>
       <c r="D10" s="1">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B11" s="25" t="s">
+      <c r="B11" s="23" t="s">
         <v>122</v>
       </c>
       <c r="D11" s="1">

--- a/PDRMYE/REPORTES MENSUALES/IRIS CECILIA LECHUGA ARTEAGA/Estimaciones Plataformas.xlsx
+++ b/PDRMYE/REPORTES MENSUALES/IRIS CECILIA LECHUGA ARTEAGA/Estimaciones Plataformas.xlsx
@@ -636,14 +636,14 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -931,7 +931,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E13" sqref="E13"/>
+      <selection pane="bottomLeft" activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -946,39 +946,39 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C1" s="25" t="s">
+      <c r="C1" s="26" t="s">
         <v>121</v>
       </c>
-      <c r="D1" s="25"/>
-      <c r="E1" s="25"/>
-      <c r="F1" s="25"/>
-      <c r="G1" s="25"/>
+      <c r="D1" s="26"/>
+      <c r="E1" s="26"/>
+      <c r="F1" s="26"/>
+      <c r="G1" s="26"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>119</v>
       </c>
       <c r="C2" s="4">
-        <v>44787</v>
-      </c>
-      <c r="D2" s="25" t="s">
+        <v>44801</v>
+      </c>
+      <c r="D2" s="26" t="s">
         <v>0</v>
       </c>
-      <c r="E2" s="25"/>
+      <c r="E2" s="26"/>
       <c r="F2" s="4">
-        <v>44791</v>
+        <v>44812</v>
       </c>
       <c r="G2" s="3"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C3" s="24" t="s">
+      <c r="C3" s="25" t="s">
         <v>123</v>
       </c>
-      <c r="D3" s="24"/>
-      <c r="F3" s="24" t="s">
+      <c r="D3" s="25"/>
+      <c r="F3" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="G3" s="24"/>
+      <c r="G3" s="25"/>
     </row>
     <row r="4" spans="1:7" ht="23.25" x14ac:dyDescent="0.35">
       <c r="C4" t="s">
@@ -986,7 +986,7 @@
       </c>
       <c r="D4" s="2">
         <f>SUM(D6:D21)</f>
-        <v>37</v>
+        <v>81</v>
       </c>
       <c r="F4" t="s">
         <v>2</v>
@@ -1024,8 +1024,8 @@
         <v>8</v>
       </c>
       <c r="C6" s="11"/>
-      <c r="D6" s="26">
-        <v>3.5</v>
+      <c r="D6" s="24">
+        <v>22</v>
       </c>
       <c r="E6" t="s">
         <v>6</v>
@@ -1046,7 +1046,7 @@
       </c>
       <c r="C7" s="16"/>
       <c r="D7" s="1">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
@@ -1057,7 +1057,7 @@
         <v>115</v>
       </c>
       <c r="D8" s="1">
-        <v>1.5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
@@ -1068,7 +1068,7 @@
         <v>113</v>
       </c>
       <c r="D9" s="1">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
@@ -1079,7 +1079,7 @@
         <v>116</v>
       </c>
       <c r="D10" s="1">
-        <v>13</v>
+        <v>16</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
@@ -1087,7 +1087,7 @@
         <v>122</v>
       </c>
       <c r="D11" s="1">
-        <v>12</v>
+        <v>22</v>
       </c>
     </row>
   </sheetData>

--- a/PDRMYE/REPORTES MENSUALES/IRIS CECILIA LECHUGA ARTEAGA/Estimaciones Plataformas.xlsx
+++ b/PDRMYE/REPORTES MENSUALES/IRIS CECILIA LECHUGA ARTEAGA/Estimaciones Plataformas.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="125">
   <si>
     <t xml:space="preserve">al </t>
   </si>
@@ -397,6 +397,9 @@
   </si>
   <si>
     <t>QA</t>
+  </si>
+  <si>
+    <t>Accesos</t>
   </si>
 </sst>
 </file>
@@ -465,7 +468,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -505,6 +508,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF7030A0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -591,7 +600,7 @@
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="1" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
@@ -645,6 +654,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hipervínculo" xfId="2" builtinId="8"/>
@@ -927,11 +937,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G11"/>
+  <dimension ref="A1:G12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F14" sqref="F14"/>
+      <selection pane="bottomLeft" activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -986,7 +996,7 @@
       </c>
       <c r="D4" s="2">
         <f>SUM(D6:D21)</f>
-        <v>81</v>
+        <v>69</v>
       </c>
       <c r="F4" t="s">
         <v>2</v>
@@ -1025,7 +1035,7 @@
       </c>
       <c r="C6" s="11"/>
       <c r="D6" s="24">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="E6" t="s">
         <v>6</v>
@@ -1046,7 +1056,7 @@
       </c>
       <c r="C7" s="16"/>
       <c r="D7" s="1">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
@@ -1057,7 +1067,7 @@
         <v>115</v>
       </c>
       <c r="D8" s="1">
-        <v>7</v>
+        <v>12</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
@@ -1068,7 +1078,7 @@
         <v>113</v>
       </c>
       <c r="D9" s="1">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
@@ -1079,7 +1089,7 @@
         <v>116</v>
       </c>
       <c r="D10" s="1">
-        <v>16</v>
+        <v>13</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
@@ -1087,7 +1097,15 @@
         <v>122</v>
       </c>
       <c r="D11" s="1">
-        <v>22</v>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B12" s="27" t="s">
+        <v>124</v>
+      </c>
+      <c r="D12" s="1">
+        <v>3</v>
       </c>
     </row>
   </sheetData>
